--- a/medicine/Psychotrope/Œufs_au_thé_noir/Œufs_au_thé_noir.xlsx
+++ b/medicine/Psychotrope/Œufs_au_thé_noir/Œufs_au_thé_noir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92ufs_au_th%C3%A9_noir</t>
+          <t>Œufs_au_thé_noir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les œufs au thé noir ( 茶叶蛋 Cháyè dàn) sont une préparation culinaire d’origine chinoise, traditionnellement vendue dans la rue et sur les marchés.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92ufs_au_th%C3%A9_noir</t>
+          <t>Œufs_au_thé_noir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fois cuits durs, les œufs sont retirés de l’eau et leur coquille est craquelée en plusieurs endroits. Ils sont remis dans l’eau de cuisson avec des feuilles de thé noir, de la sauce soja et des épices (cannelle, anis étoilé, graines de fenouil, des clous de girofle et poivre du Sichuan). Après une vingtaine de minutes, ils sont à nouveau retirés de l’eau et réservés au frais. La coloration et l’effet marbré sont optimaux après deux jours.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92ufs_au_th%C3%A9_noir</t>
+          <t>Œufs_au_thé_noir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
